--- a/SCCM DB Size Calc.xlsx
+++ b/SCCM DB Size Calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corplocalcom-my.sharepoint.com/personal/raphael_perez_net_br/Documents/Documents/__Company/RFLSystems/SCCM2012R2-Design Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="724" documentId="9041EF748D87EE54F813822D19787C77F7CCC8DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE9C5A1-EEF9-4CD8-A6B0-5A5C3277786B}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="9041EF748D87EE54F813822D19787C77F7CCC8DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E6DA48-B5B1-4704-A6B4-3734B8E74832}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
   <dimension ref="B5:J77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1296,19 +1296,19 @@
         <v>38</v>
       </c>
       <c r="C7" s="55">
-        <f>(ROUND($C$8/25000,0)*75)*1024</f>
-        <v>76800</v>
+        <f>(IF(ROUNDUP($C$8/25000,0)&lt;=1,1,ROUNDUP($C$8/25000,0))*250)*1024</f>
+        <v>256000</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="11">
         <f>IF(($C$8*$C$9)/1024&lt;$C$7,$C$7,($C$8*$C$9))</f>
-        <v>76800</v>
+        <v>256000</v>
       </c>
       <c r="G7" s="11">
         <f>F7*0.25</f>
-        <v>19200</v>
+        <v>64000</v>
       </c>
       <c r="I7" s="59" t="s">
         <v>2</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="J8" s="18">
         <f>ROUNDUP(SUM(J9:J12),0)</f>
-        <v>127</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="F9" s="11">
         <f>F7/F8</f>
-        <v>19200</v>
+        <v>64000</v>
       </c>
       <c r="G9" s="11">
         <f>G7/G8</f>
-        <v>19200</v>
+        <v>64000</v>
       </c>
       <c r="I9" s="15" t="str">
         <f>E6</f>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="J9" s="33">
         <f>ROUNDUP(F7/1024,0)*1.1</f>
-        <v>82.5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1380,11 +1380,11 @@
       </c>
       <c r="F10" s="7">
         <f>MAX(1024,F9*10%)</f>
-        <v>1920</v>
+        <v>6400</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(1024,G9*20%)</f>
-        <v>3840</v>
+        <v>12800</v>
       </c>
       <c r="I10" s="16" t="str">
         <f>E18</f>
@@ -1444,11 +1444,11 @@
       </c>
       <c r="F13" s="7">
         <f>$F$7*0.33</f>
-        <v>25344</v>
+        <v>84480</v>
       </c>
       <c r="G13" s="7">
         <f>F13*0.25</f>
-        <v>6336</v>
+        <v>21120</v>
       </c>
       <c r="I13" s="61" t="s">
         <v>32</v>
@@ -1492,11 +1492,11 @@
       </c>
       <c r="F15" s="11">
         <f>F13/F14</f>
-        <v>12672</v>
+        <v>42240</v>
       </c>
       <c r="G15" s="11">
         <f>G13/G14</f>
-        <v>6336</v>
+        <v>21120</v>
       </c>
       <c r="I15" s="34" t="s">
         <v>33</v>
@@ -1519,11 +1519,11 @@
       </c>
       <c r="F16" s="7">
         <f>MAX(1024,F15*10%)</f>
-        <v>1267.2</v>
+        <v>4224</v>
       </c>
       <c r="G16" s="7">
         <f>MAX(1024,G15*20%)</f>
-        <v>1267.2</v>
+        <v>4224</v>
       </c>
       <c r="I16" s="37" t="s">
         <v>34</v>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="J18" s="35" t="str">
         <f>ROUNDUP((F13/1024)*1.1,0)&amp;" GB"</f>
-        <v>28 GB</v>
+        <v>91 GB</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="J20" s="18" t="str">
         <f>ROUNDUP(SUM(J21:J25),0)&amp;" GB"</f>
-        <v>42 GB</v>
+        <v>106 GB</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="J21" s="36">
         <f>ROUNDUP(G7/1024,0)*1.1</f>
-        <v>20.900000000000002</v>
+        <v>69.300000000000011</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J22" s="21">
         <f>ROUNDUP(G13/1024,0)*1.1</f>
-        <v>7.7000000000000011</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1942,6 +1942,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007775EF30E9A627428E2D02B1FDC2B8A1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1547e308ce83e529bcf2323c4c616080">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -2055,22 +2070,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F31F519D-4301-4625-B4A3-AC2F19B94E92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF766EB-4884-441F-AB19-134C72CB7D9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2156EDE8-E63A-4118-B379-5DE5659ED0F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2084,27 +2107,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAF766EB-4884-441F-AB19-134C72CB7D9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F31F519D-4301-4625-B4A3-AC2F19B94E92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>